--- a/June2021/26.06.2021/Hello Daffodils Balance Transfer June'2021.xlsx
+++ b/June2021/26.06.2021/Hello Daffodils Balance Transfer June'2021.xlsx
@@ -1449,8 +1449,8 @@
   <dimension ref="A1:BH238"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
